--- a/Sales.xlsx
+++ b/Sales.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\OneDrive\Documents\Doc1819\Essec\Seance8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7EB507E77129A2831BA5DE13F316DB82D23624EF" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{67385048-2B8B-402C-9E8F-4B9B5136DA7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="0" windowWidth="13740" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="ventes" sheetId="1" r:id="rId1"/>
@@ -63,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -92,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -109,14 +103,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -441,29 +427,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="9" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -527,7 +513,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -559,7 +545,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -591,7 +577,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -623,7 +609,7 @@
         <v>5502</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -655,7 +641,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -687,7 +673,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -719,7 +705,7 @@
         <v>4627</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -751,7 +737,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -783,7 +769,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -815,7 +801,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -847,7 +833,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -879,7 +865,7 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -911,7 +897,7 @@
         <v>5383</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -943,7 +929,7 @@
         <v>4888</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -975,7 +961,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1007,7 +993,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1039,7 +1025,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1071,7 +1057,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1103,7 +1089,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1135,7 +1121,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1167,7 +1153,7 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1199,7 +1185,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1231,7 +1217,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1263,7 +1249,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1295,7 +1281,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1327,7 +1313,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1359,7 +1345,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1391,7 +1377,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1423,7 +1409,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1455,7 +1441,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1487,7 +1473,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1519,7 +1505,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1551,7 +1537,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1583,7 +1569,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1615,7 +1601,7 @@
         <v>6180</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1647,7 +1633,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1679,7 +1665,7 @@
         <v>5512</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1711,7 +1697,7 @@
         <v>5272</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>39</v>
       </c>
